--- a/UiPath.xlsx
+++ b/UiPath.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miliansolberg/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miliansolberg/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DE2DE2-408A-0640-B8E3-9AD69D938C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A8E77-28AD-5B45-8577-CFC0D03B65D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{EC6D5C9F-7749-374B-BD09-7D3930FC177D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Model" sheetId="2" r:id="rId1"/>
     <sheet name="Main" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -203,7 +203,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -266,10 +266,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,15 +298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>527119</xdr:colOff>
+      <xdr:colOff>349319</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>26220</xdr:rowOff>
+      <xdr:rowOff>77020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>166057</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>826457</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>11018</xdr:rowOff>
+      <xdr:rowOff>61818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -329,8 +329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15575936" y="2074607"/>
-          <a:ext cx="7668616" cy="8178346"/>
+          <a:off x="15462319" y="2109020"/>
+          <a:ext cx="7792338" cy="8112798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,15 +341,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>248138</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425938</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>82700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>187559</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>365359</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>60568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -380,8 +380,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2938353" y="7047216"/>
-          <a:ext cx="10591034" cy="6327868"/>
+          <a:off x="15538938" y="10852300"/>
+          <a:ext cx="10607421" cy="6277068"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -396,6 +396,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Bilde 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A775BC3-BA40-941D-850A-523B81710D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7112000"/>
+          <a:ext cx="13563600" cy="8255000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -702,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D611AFC-0200-8646-B72F-3425955E55E0}">
   <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,39 +1149,39 @@
         <v>37</v>
       </c>
       <c r="C15" s="1">
-        <f>C6/C4</f>
+        <f t="shared" ref="C15:K15" si="4">C6/C4</f>
         <v>0.87941964404127215</v>
       </c>
       <c r="D15" s="1">
-        <f>D6/D4</f>
+        <f t="shared" si="4"/>
         <v>0.89454425439099994</v>
       </c>
       <c r="E15" s="1">
-        <f>E6/E4</f>
+        <f t="shared" si="4"/>
         <v>0.88196674564970912</v>
       </c>
       <c r="F15" s="1">
-        <f>F6/F4</f>
+        <f t="shared" si="4"/>
         <v>0.90313409500901987</v>
       </c>
       <c r="G15" s="1">
-        <f>G6/G4</f>
+        <f t="shared" si="4"/>
         <v>0.7368124285108234</v>
       </c>
       <c r="H15" s="1">
-        <f>H6/H4</f>
+        <f t="shared" si="4"/>
         <v>0.81795305875072244</v>
       </c>
       <c r="I15" s="1">
-        <f>I6/I4</f>
+        <f t="shared" si="4"/>
         <v>0.80481486848779071</v>
       </c>
       <c r="J15" s="1">
-        <f>J6/J4</f>
+        <f t="shared" si="4"/>
         <v>0.85790719991163211</v>
       </c>
       <c r="K15" s="1">
-        <f>K6/K4</f>
+        <f t="shared" si="4"/>
         <v>0.81631070813576756</v>
       </c>
       <c r="L15" s="1"/>
@@ -1187,15 +1231,15 @@
         <v>73.899999999999977</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:K18" si="4">I17-H17</f>
+        <f t="shared" ref="I18:K18" si="5">I17-H17</f>
         <v>91.899999999999977</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>106.89999999999998</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>51.800000000000068</v>
       </c>
     </row>
@@ -1301,19 +1345,19 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2">
-        <f t="shared" ref="H25:K25" si="5">H27*H26</f>
+        <f t="shared" ref="H25:K25" si="6">H27*H26</f>
         <v>32907000</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26692243.600000001</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19606413</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10025187</v>
       </c>
     </row>

--- a/UiPath.xlsx
+++ b/UiPath.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miliansolberg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eier\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864A8E77-28AD-5B45-8577-CFC0D03B65D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF77BE3-5FEA-48ED-B8A2-986D2520DA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{EC6D5C9F-7749-374B-BD09-7D3930FC177D}"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="13965" windowHeight="11325" xr2:uid="{EC6D5C9F-7749-374B-BD09-7D3930FC177D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Price</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Q121</t>
   </si>
   <si>
-    <t>Q322</t>
-  </si>
-  <si>
-    <t>Q422</t>
-  </si>
-  <si>
     <t>Q221</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Cash + Marketable Securities</t>
   </si>
   <si>
-    <t>EPS</t>
-  </si>
-  <si>
     <t>Net New ARR ($M)</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Net Retention Rate</t>
   </si>
   <si>
-    <t>Forecast</t>
-  </si>
-  <si>
     <t>CEO</t>
   </si>
   <si>
@@ -195,6 +183,12 @@
   </si>
   <si>
     <t>Big lock-ups</t>
+  </si>
+  <si>
+    <t>EPS (Net loss per share)</t>
+  </si>
+  <si>
+    <t>$-0,22</t>
   </si>
 </sst>
 </file>
@@ -252,7 +246,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -274,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -402,23 +397,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Bilde 3">
+        <xdr:cNvPr id="6" name="Bilde 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A775BC3-BA40-941D-850A-523B81710D23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1461C2CB-AA1E-DB0C-8C95-4C1FA53C7A8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -434,8 +429,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="7112000"/>
-          <a:ext cx="13563600" cy="8255000"/>
+          <a:off x="838200" y="6896100"/>
+          <a:ext cx="14268450" cy="8334375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,54 +739,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D611AFC-0200-8646-B72F-3425955E55E0}">
-  <dimension ref="A2:Z29"/>
+  <dimension ref="A3:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.83203125" customWidth="1"/>
-    <col min="17" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.875" customWidth="1"/>
+    <col min="17" max="19" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>10</v>
@@ -799,16 +789,12 @@
       <c r="K3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10">
         <v>2020</v>
@@ -817,7 +803,7 @@
         <v>2021</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -827,7 +813,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -858,10 +844,10 @@
       <c r="K4" s="2">
         <v>245066</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2">
-        <v>230000</v>
-      </c>
+      <c r="L4" s="2">
+        <v>242222</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="Q4" s="12">
         <f>C4+D4+E4+F4</f>
         <v>607643</v>
@@ -875,9 +861,9 @@
         <v>951101</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>13638</v>
@@ -906,9 +892,11 @@
       <c r="K5" s="2">
         <v>45016</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L5" s="2">
+        <v>44576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -933,7 +921,7 @@
         <v>137207</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:K6" si="1">H4-H5</f>
+        <f t="shared" ref="H6:L6" si="1">H4-H5</f>
         <v>159927</v>
       </c>
       <c r="I6" s="2">
@@ -948,12 +936,15 @@
         <f t="shared" si="1"/>
         <v>200050</v>
       </c>
-      <c r="L6" s="2"/>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>197646</v>
+      </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>90931</v>
@@ -982,18 +973,20 @@
       <c r="K7" s="2">
         <v>189782</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="2">
+        <v>181547</v>
+      </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R7" s="1">
         <f>R4/Q4-1</f>
         <v>0.46838192820455427</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>26729</v>
@@ -1022,44 +1015,48 @@
       <c r="K8" s="2">
         <v>68690</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L8" s="2">
+        <v>67849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13">
         <v>26676</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>24834</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>65951</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>44574</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>74415</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="13">
         <v>55834</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="13">
         <v>59498</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>60244</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <v>57530</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L9" s="13">
+        <v>68443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <f>C7+C8+C9</f>
@@ -1082,7 +1079,7 @@
         <v>373206</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ref="H10:K10" si="3">H7+H8+H9</f>
+        <f t="shared" ref="H10:L10" si="3">H7+H8+H9</f>
         <v>257748</v>
       </c>
       <c r="I10" s="2">
@@ -1097,11 +1094,14 @@
         <f t="shared" si="3"/>
         <v>316002</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>317839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <f>G4/C4-1</f>
@@ -1123,15 +1123,14 @@
         <f>K4/G4-1</f>
         <v>0.31602377870978482</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
-        <f>M4/H4-1</f>
-        <v>0.17634422900864877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1142,11 +1141,13 @@
       <c r="K14" s="1">
         <v>1.38</v>
       </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:K15" si="4">C6/C4</f>
@@ -1184,9 +1185,11 @@
         <f t="shared" si="4"/>
         <v>0.81631070813576756</v>
       </c>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L15" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1199,15 +1202,15 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>652.6</v>
       </c>
       <c r="H17">
-        <v>726.5</v>
+        <v>726</v>
       </c>
       <c r="I17">
         <v>818.4</v>
@@ -1218,21 +1221,21 @@
       <c r="K17">
         <v>977.1</v>
       </c>
-      <c r="M17">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18">
         <f>H17-G17</f>
-        <v>73.899999999999977</v>
+        <v>73.399999999999977</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:K18" si="5">I17-H17</f>
-        <v>91.899999999999977</v>
+        <f t="shared" ref="I18:L18" si="5">I17-H17</f>
+        <v>92.399999999999977</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
@@ -1242,10 +1245,14 @@
         <f t="shared" si="5"/>
         <v>51.800000000000068</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>65.899999999999977</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1266,9 +1273,11 @@
       <c r="K20" s="5">
         <v>-53.8</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <v>-23.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1280,41 +1289,44 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" t="s">
+      <c r="K22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12">
@@ -1333,11 +1345,14 @@
         <f>K25/(H4+I4+J4+K4)</f>
         <v>10.540612406043101</v>
       </c>
+      <c r="L23">
+        <v>7.5</v>
+      </c>
       <c r="M23" s="12"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -1360,8 +1375,12 @@
         <f t="shared" si="6"/>
         <v>10025187</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L25" s="2">
+        <f>L27*L26</f>
+        <v>7098754</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>2</v>
       </c>
@@ -1392,10 +1411,13 @@
       <c r="K26" s="8">
         <v>541902</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="8">
+        <v>546058</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1416,13 +1438,16 @@
       <c r="K27" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L27" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1436,16 +1461,16 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1461,7 +1486,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1479,7 +1504,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -1497,7 +1522,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -1516,10 +1541,10 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>1793966</v>
@@ -1534,7 +1559,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -1552,7 +1577,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1571,7 +1596,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -1585,7 +1610,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1604,7 +1629,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
@@ -1618,7 +1643,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1636,10 +1661,10 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>9</v>
@@ -1654,7 +1679,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1668,7 +1693,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -1684,7 +1709,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1698,7 +1723,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1712,7 +1737,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1726,7 +1751,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1740,7 +1765,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1754,7 +1779,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1768,7 +1793,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1782,7 +1807,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1796,7 +1821,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1810,7 +1835,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1824,7 +1849,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1838,7 +1863,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1852,7 +1877,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1866,7 +1891,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1880,7 +1905,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1894,7 +1919,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1908,7 +1933,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1922,7 +1947,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1936,7 +1961,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1950,7 +1975,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1964,7 +1989,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -1978,7 +2003,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -1992,7 +2017,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2006,18 +2031,18 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
     </row>
   </sheetData>
